--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.3.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716C22BA-DDD2-4D63-A58D-9CADF896AA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD31574-BDC1-4985-9B91-E3FA6F672A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="1110" windowWidth="26340" windowHeight="16320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$N$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -66,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="530">
   <si>
     <t>Scheme ID</t>
   </si>
@@ -1100,9 +1091,6 @@
     <t>9958</t>
   </si>
   <si>
-    <t>German Leitweg ID</t>
-  </si>
-  <si>
     <t>0183</t>
   </si>
   <si>
@@ -1195,9 +1183,6 @@
   </si>
   <si>
     <t>0204</t>
-  </si>
-  <si>
-    <t>Leitweg-ID</t>
   </si>
   <si>
     <t>Koordinierungsstelle für IT-Standards (KoSIT)</t>
@@ -1873,6 +1858,24 @@
   </si>
   <si>
     <t>Character Repertoire: Capital letters A-Z, digits 0-9</t>
+  </si>
+  <si>
+    <t>US:EIN</t>
+  </si>
+  <si>
+    <t>9959</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>US Employer ID Number</t>
+  </si>
+  <si>
+    <t>Peppol-Leitweg-ID</t>
+  </si>
+  <si>
+    <t>8.3</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +1966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1983,33 +1986,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2675,10 +2671,10 @@
   <dimension ref="A1:AMN98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,7 +2685,7 @@
     <col min="4" max="4" width="37.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="62.42578125" style="9" bestFit="1" customWidth="1"/>
@@ -2698,7 +2694,6 @@
     <col min="13" max="13" width="30.5703125" style="10" customWidth="1"/>
     <col min="14" max="14" width="24.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="1027" width="14.140625" style="7" customWidth="1"/>
-    <col min="1028" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2718,16 +2713,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>504</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>5</v>
@@ -2736,10 +2731,10 @@
         <v>6</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>7</v>
@@ -2764,20 +2759,20 @@
       <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>496</v>
+      <c r="G2" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>14</v>
@@ -2802,20 +2797,20 @@
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>496</v>
+      <c r="G3" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2837,20 +2832,20 @@
       <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>496</v>
+      <c r="G4" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="150" x14ac:dyDescent="0.25">
@@ -2872,23 +2867,23 @@
       <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>496</v>
+      <c r="G5" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="105" x14ac:dyDescent="0.25">
@@ -2910,23 +2905,23 @@
       <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>496</v>
+      <c r="G6" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>42</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2948,8 +2943,8 @@
       <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>496</v>
+      <c r="G7" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>48</v>
@@ -2958,13 +2953,13 @@
         <v>32</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="195" x14ac:dyDescent="0.25">
@@ -2986,17 +2981,17 @@
       <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>496</v>
+      <c r="G8" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="180" x14ac:dyDescent="0.25">
@@ -3018,20 +3013,20 @@
       <c r="F9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>496</v>
+      <c r="G9" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="210" x14ac:dyDescent="0.25">
@@ -3053,20 +3048,20 @@
       <c r="F10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>496</v>
+      <c r="G10" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -3088,8 +3083,8 @@
       <c r="F11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>496</v>
+      <c r="G11" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>64</v>
@@ -3098,7 +3093,7 @@
         <v>32</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3120,8 +3115,8 @@
       <c r="F12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>496</v>
+      <c r="G12" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>73</v>
@@ -3130,7 +3125,7 @@
         <v>32</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -3152,8 +3147,8 @@
       <c r="F13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>496</v>
+      <c r="G13" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>127</v>
@@ -3162,7 +3157,7 @@
         <v>32</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="240" x14ac:dyDescent="0.25">
@@ -3184,58 +3179,58 @@
       <c r="F14" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>496</v>
+      <c r="G14" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>80</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>214</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>496</v>
+      <c r="G15" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3257,43 +3252,43 @@
       <c r="F16" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>496</v>
+      <c r="G16" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:14 1028:1028" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>509</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>32</v>
@@ -3318,23 +3313,23 @@
       <c r="F18" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>496</v>
+      <c r="G18" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:14 1028:1028" ht="225" x14ac:dyDescent="0.25">
@@ -3356,23 +3351,23 @@
       <c r="F19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>496</v>
+      <c r="G19" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:14 1028:1028" ht="60" x14ac:dyDescent="0.25">
@@ -3394,8 +3389,8 @@
       <c r="F20" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>496</v>
+      <c r="G20" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>100</v>
@@ -3404,10 +3399,10 @@
         <v>32</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
@@ -3429,8 +3424,8 @@
       <c r="F21" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>496</v>
+      <c r="G21" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>107</v>
@@ -3439,7 +3434,7 @@
         <v>32</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:14 1028:1028" ht="105" x14ac:dyDescent="0.25">
@@ -3461,20 +3456,20 @@
       <c r="F22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>496</v>
+      <c r="G22" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:14 1028:1028" ht="105" x14ac:dyDescent="0.25">
@@ -3496,81 +3491,81 @@
       <c r="F23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>496</v>
+      <c r="G23" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>496</v>
+      <c r="G24" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J24" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="M24" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:14 1028:1028" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>496</v>
+      <c r="G25" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:14 1028:1028" ht="90" x14ac:dyDescent="0.25">
@@ -3592,8 +3587,8 @@
       <c r="F26" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="17" t="s">
-        <v>496</v>
+      <c r="G26" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>123</v>
@@ -3602,357 +3597,357 @@
         <v>32</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:14 1028:1028" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>360</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>361</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12" t="s">
-        <v>453</v>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11" t="s">
+        <v>451</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AMN27" s="7"/>
     </row>
     <row r="28" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>226</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="J28" s="9" t="s">
+      <c r="L28" s="11"/>
+      <c r="M28" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12" t="s">
-        <v>500</v>
-      </c>
       <c r="N28" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AMN28" s="7"/>
     </row>
     <row r="29" spans="1:14 1028:1028" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>103</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="G29" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="L29" s="12"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AMN29" s="7"/>
     </row>
     <row r="30" spans="1:14 1028:1028" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>468</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>470</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>472</v>
+      <c r="L30" s="11" t="s">
+        <v>470</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AMN30" s="7"/>
     </row>
     <row r="31" spans="1:14 1028:1028" ht="255" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="J31" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="L31" s="11"/>
+      <c r="M31" s="10" t="s">
         <v>476</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="10" t="s">
-        <v>478</v>
       </c>
       <c r="AMN31" s="7"/>
     </row>
     <row r="32" spans="1:14 1028:1028" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>496</v>
+        <v>474</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="L32" s="12"/>
+        <v>499</v>
+      </c>
+      <c r="L32" s="11"/>
       <c r="M32" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AMN32" s="7"/>
     </row>
     <row r="33" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="J33" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="K33" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="J33" s="9" t="s">
+      <c r="L33" s="11"/>
+      <c r="M33" s="10" t="s">
         <v>486</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="10" t="s">
-        <v>488</v>
       </c>
       <c r="AMN33" s="7"/>
     </row>
     <row r="34" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="J34" s="9" t="s">
+      <c r="L34" s="11"/>
+      <c r="M34" s="10" t="s">
         <v>490</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="10" t="s">
-        <v>492</v>
       </c>
       <c r="AMN34" s="7"/>
     </row>
     <row r="35" spans="1:14 1028:1028" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="J35" s="9" t="s">
         <v>514</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>516</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L35" s="12"/>
+      <c r="L35" s="11"/>
       <c r="M35" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AMN35" s="7"/>
     </row>
     <row r="36" spans="1:14 1028:1028" ht="240" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>521</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>523</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L36" s="12"/>
+      <c r="L36" s="11"/>
       <c r="M36" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AMN36" s="7"/>
     </row>
@@ -3975,8 +3970,8 @@
       <c r="F37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="17" t="s">
-        <v>496</v>
+      <c r="G37" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>127</v>
@@ -3985,7 +3980,7 @@
         <v>32</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
@@ -4007,14 +4002,14 @@
       <c r="F38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="17" t="s">
-        <v>496</v>
+      <c r="G38" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
@@ -4036,14 +4031,14 @@
       <c r="F39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>496</v>
+      <c r="G39" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>134</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
@@ -4065,14 +4060,14 @@
       <c r="F40" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="17" t="s">
-        <v>496</v>
+      <c r="G40" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>134</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="41" spans="1:14 1028:1028" ht="105" x14ac:dyDescent="0.25">
@@ -4091,20 +4086,20 @@
       <c r="F41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="17" t="s">
-        <v>497</v>
+      <c r="G41" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>141</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:14 1028:1028" ht="285" x14ac:dyDescent="0.25">
@@ -4126,20 +4121,20 @@
       <c r="F42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="17" t="s">
-        <v>497</v>
+      <c r="G42" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="1:14 1028:1028" ht="60" x14ac:dyDescent="0.25">
@@ -4161,17 +4156,17 @@
       <c r="F43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="17" t="s">
-        <v>496</v>
+      <c r="G43" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>100</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
@@ -4185,7 +4180,7 @@
         <v>97</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>147</v>
@@ -4193,8 +4188,8 @@
       <c r="F44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="17" t="s">
-        <v>497</v>
+      <c r="G44" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>150</v>
@@ -4203,10 +4198,10 @@
         <v>155</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:14 1028:1028" ht="90" x14ac:dyDescent="0.25">
@@ -4225,11 +4220,11 @@
       <c r="F45" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="17" t="s">
-        <v>496</v>
+      <c r="G45" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:14 1028:1028" ht="75" x14ac:dyDescent="0.25">
@@ -4245,12 +4240,12 @@
       <c r="D46" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="11"/>
+      <c r="E46"/>
       <c r="F46" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="17" t="s">
-        <v>497</v>
+      <c r="G46" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>150</v>
@@ -4259,10 +4254,10 @@
         <v>159</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="1:14 1028:1028" x14ac:dyDescent="0.25">
@@ -4284,11 +4279,11 @@
       <c r="F47" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="17" t="s">
-        <v>496</v>
+      <c r="G47" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:14 1028:1028" ht="30" x14ac:dyDescent="0.25">
@@ -4307,8 +4302,8 @@
       <c r="F48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="17" t="s">
-        <v>496</v>
+      <c r="G48" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>168</v>
@@ -4327,21 +4322,21 @@
       <c r="D49" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E49" s="11"/>
+      <c r="E49"/>
       <c r="F49" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="17" t="s">
-        <v>496</v>
+      <c r="G49" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4360,8 +4355,8 @@
       <c r="F50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="17" t="s">
-        <v>497</v>
+      <c r="G50" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>176</v>
@@ -4383,20 +4378,20 @@
       <c r="F51" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="17" t="s">
-        <v>497</v>
+      <c r="G51" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>180</v>
@@ -4421,11 +4416,11 @@
       <c r="F52" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G52" s="17" t="s">
-        <v>496</v>
+      <c r="G52" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -4441,18 +4436,18 @@
       <c r="D53" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E53" s="11"/>
+      <c r="E53"/>
       <c r="F53" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G53" s="17" t="s">
-        <v>496</v>
+      <c r="G53" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>187</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4474,8 +4469,8 @@
       <c r="F54" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G54" s="17" t="s">
-        <v>496</v>
+      <c r="G54" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4497,18 +4492,18 @@
       <c r="F55" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G55" s="17" t="s">
-        <v>497</v>
+      <c r="G55" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="13" t="s">
         <v>193</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -4520,16 +4515,16 @@
       <c r="D56" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E56" s="11"/>
+      <c r="E56"/>
       <c r="F56" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="17" t="s">
-        <v>496</v>
+      <c r="G56" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="13" t="s">
         <v>197</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -4541,16 +4536,16 @@
       <c r="D57" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E57" s="11"/>
+      <c r="E57"/>
       <c r="F57" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G57" s="17" t="s">
-        <v>496</v>
+      <c r="G57" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
         <v>201</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -4562,16 +4557,16 @@
       <c r="D58" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E58" s="11"/>
+      <c r="E58"/>
       <c r="F58" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G58" s="17" t="s">
-        <v>496</v>
+      <c r="G58" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="13" t="s">
         <v>205</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -4583,16 +4578,16 @@
       <c r="D59" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="11"/>
+      <c r="E59"/>
       <c r="F59" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G59" s="17" t="s">
-        <v>496</v>
+      <c r="G59" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="13" t="s">
         <v>208</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -4604,16 +4599,16 @@
       <c r="D60" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E60" s="11"/>
+      <c r="E60"/>
       <c r="F60" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G60" s="17" t="s">
-        <v>496</v>
+      <c r="G60" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="13" t="s">
         <v>212</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -4625,16 +4620,16 @@
       <c r="D61" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E61" s="11"/>
+      <c r="E61"/>
       <c r="F61" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G61" s="17" t="s">
-        <v>496</v>
+      <c r="G61" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -4649,12 +4644,12 @@
       <c r="F62" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G62" s="17" t="s">
-        <v>496</v>
+      <c r="G62" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="13" t="s">
         <v>220</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -4666,16 +4661,16 @@
       <c r="D63" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E63" s="11"/>
+      <c r="E63"/>
       <c r="F63" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G63" s="17" t="s">
-        <v>496</v>
+      <c r="G63" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="13" t="s">
         <v>224</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -4687,16 +4682,16 @@
       <c r="D64" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E64" s="11"/>
+      <c r="E64"/>
       <c r="F64" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G64" s="17" t="s">
-        <v>496</v>
+      <c r="G64" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
         <v>228</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -4708,16 +4703,16 @@
       <c r="D65" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E65" s="11"/>
+      <c r="E65"/>
       <c r="F65" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G65" s="17" t="s">
-        <v>496</v>
+      <c r="G65" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>231</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -4729,16 +4724,16 @@
       <c r="D66" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E66" s="11"/>
+      <c r="E66"/>
       <c r="F66" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G66" s="17" t="s">
-        <v>496</v>
+      <c r="G66" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="14" t="s">
         <v>235</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -4750,16 +4745,16 @@
       <c r="D67" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E67" s="11"/>
+      <c r="E67"/>
       <c r="F67" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G67" s="17" t="s">
-        <v>496</v>
+      <c r="G67" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>239</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -4771,16 +4766,16 @@
       <c r="D68" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E68" s="11"/>
+      <c r="E68"/>
       <c r="F68" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G68" s="17" t="s">
-        <v>496</v>
+      <c r="G68" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>243</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -4792,16 +4787,16 @@
       <c r="D69" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E69" s="11"/>
+      <c r="E69"/>
       <c r="F69" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G69" s="17" t="s">
-        <v>496</v>
+      <c r="G69" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
         <v>247</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -4813,16 +4808,16 @@
       <c r="D70" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E70" s="11"/>
+      <c r="E70"/>
       <c r="F70" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G70" s="17" t="s">
-        <v>496</v>
+      <c r="G70" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>251</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -4834,16 +4829,16 @@
       <c r="D71" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E71" s="11"/>
+      <c r="E71"/>
       <c r="F71" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G71" s="17" t="s">
-        <v>496</v>
+      <c r="G71" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>254</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -4855,16 +4850,16 @@
       <c r="D72" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E72" s="11"/>
+      <c r="E72"/>
       <c r="F72" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G72" s="17" t="s">
-        <v>496</v>
+      <c r="G72" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>258</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -4876,16 +4871,16 @@
       <c r="D73" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="E73" s="11"/>
+      <c r="E73"/>
       <c r="F73" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G73" s="17" t="s">
-        <v>496</v>
+      <c r="G73" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="14" t="s">
         <v>262</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -4897,16 +4892,16 @@
       <c r="D74" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E74" s="11"/>
+      <c r="E74"/>
       <c r="F74" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G74" s="17" t="s">
-        <v>496</v>
+      <c r="G74" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>266</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -4918,16 +4913,16 @@
       <c r="D75" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E75" s="11"/>
+      <c r="E75"/>
       <c r="F75" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G75" s="17" t="s">
-        <v>496</v>
+      <c r="G75" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>270</v>
       </c>
       <c r="B76" s="7" t="s">
@@ -4939,16 +4934,16 @@
       <c r="D76" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E76" s="11"/>
+      <c r="E76"/>
       <c r="F76" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G76" s="17" t="s">
-        <v>496</v>
+      <c r="G76" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>274</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -4960,16 +4955,16 @@
       <c r="D77" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="E77" s="11"/>
+      <c r="E77"/>
       <c r="F77" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G77" s="17" t="s">
-        <v>496</v>
+      <c r="G77" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>278</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -4981,16 +4976,16 @@
       <c r="D78" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="E78" s="11"/>
+      <c r="E78"/>
       <c r="F78" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G78" s="17" t="s">
-        <v>496</v>
+      <c r="G78" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="14" t="s">
         <v>281</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -5002,16 +4997,16 @@
       <c r="D79" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E79" s="11"/>
+      <c r="E79"/>
       <c r="F79" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G79" s="17" t="s">
-        <v>496</v>
+      <c r="G79" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
         <v>285</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -5023,16 +5018,16 @@
       <c r="D80" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E80" s="11"/>
+      <c r="E80"/>
       <c r="F80" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G80" s="17" t="s">
-        <v>496</v>
+      <c r="G80" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>289</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -5044,17 +5039,17 @@
       <c r="D81" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E81" s="11"/>
+      <c r="E81"/>
       <c r="F81" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G81" s="17" t="s">
-        <v>496</v>
+      <c r="G81" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>293</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -5066,17 +5061,17 @@
       <c r="D82" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="E82" s="11"/>
+      <c r="E82"/>
       <c r="F82" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G82" s="17" t="s">
-        <v>496</v>
+      <c r="G82" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="14" t="s">
         <v>297</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -5088,17 +5083,17 @@
       <c r="D83" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E83" s="11"/>
+      <c r="E83"/>
       <c r="F83" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G83" s="17" t="s">
-        <v>496</v>
+      <c r="G83" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="14" t="s">
         <v>301</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -5110,16 +5105,16 @@
       <c r="D84" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="E84" s="11"/>
+      <c r="E84"/>
       <c r="F84" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G84" s="17" t="s">
-        <v>496</v>
+      <c r="G84" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="14" t="s">
         <v>305</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -5134,12 +5129,12 @@
       <c r="F85" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G85" s="17" t="s">
-        <v>496</v>
+      <c r="G85" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="14" t="s">
         <v>309</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -5151,17 +5146,17 @@
       <c r="D86" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="11"/>
+      <c r="E86"/>
       <c r="F86" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G86" s="17" t="s">
-        <v>496</v>
+      <c r="G86" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="I86" s="4"/>
     </row>
     <row r="87" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -5173,12 +5168,12 @@
       <c r="D87" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="E87" s="11"/>
+      <c r="E87"/>
       <c r="F87" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G87" s="17" t="s">
-        <v>496</v>
+      <c r="G87" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -5197,8 +5192,8 @@
       <c r="F88" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="G88" s="17" t="s">
-        <v>497</v>
+      <c r="G88" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>89</v>
@@ -5224,8 +5219,8 @@
       <c r="F89" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="G89" s="17" t="s">
-        <v>496</v>
+      <c r="G89" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="I89" s="3"/>
     </row>
@@ -5248,21 +5243,21 @@
       <c r="F90" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G90" s="17" t="s">
-        <v>497</v>
+      <c r="G90" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="9" t="s">
         <v>330</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -5281,8 +5276,8 @@
       <c r="F91" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G91" s="17" t="s">
-        <v>496</v>
+      <c r="G91" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -5296,20 +5291,40 @@
         <v>226</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>336</v>
+        <v>528</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G92" s="17" t="s">
-        <v>497</v>
+      <c r="G92" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I92" s="4"/>
       <c r="N92" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.25">

--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.3.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD31574-BDC1-4985-9B91-E3FA6F672A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A25B80A-9716-4AB2-A0E7-1E1DB6A87A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="1110" windowWidth="26340" windowHeight="16320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23925" yWindow="1305" windowWidth="26340" windowHeight="16320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
@@ -1506,10 +1506,6 @@
     <t>RegEx: [0-9]{14}</t>
   </si>
   <si>
-    <t>RegEx: 0037[0-9]{8}[0-9A-Z]{0,5}
-Check Digit: mod11 of 8-digit OrgCode (weights 2, 4, 8, 5, 10, 9, 7 [right to left] or 7, 9, 10, 5, 8, 4, 2, 1 [left to right])</t>
-  </si>
-  <si>
     <t>RegEx: [0-9]{9}</t>
   </si>
   <si>
@@ -1876,6 +1872,10 @@
   </si>
   <si>
     <t>8.3</t>
+  </si>
+  <si>
+    <t>RegEx: (0037)?[0-9]{7}-?[0-9][0-9A-Z]{0,5}
+Check Digit: mod11 of 8-digit OrgCode (weights 2, 4, 8, 5, 10, 9, 7 [right to left] or 7, 9, 10, 5, 8, 4, 2, 1 [left to right])</t>
   </si>
 </sst>
 </file>
@@ -2671,10 +2671,10 @@
   <dimension ref="A1:AMN98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,16 +2713,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>5</v>
@@ -2760,7 +2760,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>366</v>
@@ -2798,7 +2798,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>367</v>
@@ -2833,7 +2833,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>368</v>
@@ -2868,7 +2868,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>369</v>
@@ -2880,7 +2880,7 @@
         <v>390</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>434</v>
+        <v>529</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>402</v>
@@ -2906,7 +2906,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>370</v>
@@ -2918,7 +2918,7 @@
         <v>391</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>403</v>
@@ -2944,7 +2944,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>48</v>
@@ -2956,7 +2956,7 @@
         <v>392</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>404</v>
@@ -2982,7 +2982,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>371</v>
@@ -2991,7 +2991,7 @@
         <v>32</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="180" x14ac:dyDescent="0.25">
@@ -3014,7 +3014,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>372</v>
@@ -3023,7 +3023,7 @@
         <v>32</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>405</v>
@@ -3049,7 +3049,7 @@
         <v>58</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>373</v>
@@ -3058,7 +3058,7 @@
         <v>32</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>406</v>
@@ -3084,7 +3084,7 @@
         <v>63</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>64</v>
@@ -3116,7 +3116,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>73</v>
@@ -3148,7 +3148,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>127</v>
@@ -3180,7 +3180,7 @@
         <v>79</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>374</v>
@@ -3192,7 +3192,7 @@
         <v>393</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>409</v>
@@ -3218,7 +3218,7 @@
         <v>79</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>339</v>
@@ -3227,7 +3227,7 @@
         <v>338</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>342</v>
@@ -3253,7 +3253,7 @@
         <v>84</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>375</v>
@@ -3262,33 +3262,33 @@
         <v>383</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:14 1028:1028" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>508</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>509</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>32</v>
@@ -3314,7 +3314,7 @@
         <v>89</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>376</v>
@@ -3326,7 +3326,7 @@
         <v>394</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>410</v>
@@ -3352,7 +3352,7 @@
         <v>89</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>377</v>
@@ -3364,7 +3364,7 @@
         <v>395</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>411</v>
@@ -3390,7 +3390,7 @@
         <v>89</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>100</v>
@@ -3402,7 +3402,7 @@
         <v>396</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
@@ -3425,7 +3425,7 @@
         <v>106</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>107</v>
@@ -3434,7 +3434,7 @@
         <v>32</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:14 1028:1028" ht="105" x14ac:dyDescent="0.25">
@@ -3457,7 +3457,7 @@
         <v>63</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>378</v>
@@ -3466,7 +3466,7 @@
         <v>385</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>412</v>
@@ -3492,7 +3492,7 @@
         <v>63</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>379</v>
@@ -3501,7 +3501,7 @@
         <v>386</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
@@ -3524,7 +3524,7 @@
         <v>79</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>348</v>
@@ -3533,7 +3533,7 @@
         <v>349</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:14 1028:1028" ht="409.5" x14ac:dyDescent="0.25">
@@ -3556,7 +3556,7 @@
         <v>79</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>380</v>
@@ -3565,7 +3565,7 @@
         <v>353</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:14 1028:1028" ht="90" x14ac:dyDescent="0.25">
@@ -3588,7 +3588,7 @@
         <v>79</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>123</v>
@@ -3600,7 +3600,7 @@
         <v>397</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:14 1028:1028" ht="30" x14ac:dyDescent="0.25">
@@ -3623,7 +3623,7 @@
         <v>359</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>360</v>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>361</v>
@@ -3651,7 +3651,7 @@
         <v>226</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>364</v>
@@ -3660,20 +3660,20 @@
         <v>359</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>365</v>
       </c>
       <c r="L28" s="11"/>
       <c r="M28" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AMN28" s="7"/>
     </row>
@@ -3697,257 +3697,257 @@
         <v>426</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K29" s="9" t="s">
         <v>427</v>
       </c>
       <c r="L29" s="11"/>
       <c r="M29" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AMN29" s="7"/>
     </row>
     <row r="30" spans="1:14 1028:1028" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="G30" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>467</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>468</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AMN30" s="7"/>
     </row>
     <row r="31" spans="1:14 1028:1028" ht="255" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="J31" s="9" t="s">
         <v>474</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>475</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AMN31" s="7"/>
     </row>
     <row r="32" spans="1:14 1028:1028" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AMN32" s="7"/>
     </row>
     <row r="33" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="J33" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="J33" s="9" t="s">
+      <c r="K33" s="9" t="s">
         <v>484</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="L33" s="11"/>
       <c r="M33" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AMN33" s="7"/>
     </row>
     <row r="34" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="J34" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="J34" s="9" t="s">
+      <c r="K34" s="9" t="s">
         <v>488</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>489</v>
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AMN34" s="7"/>
     </row>
     <row r="35" spans="1:14 1028:1028" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="J35" s="9" t="s">
         <v>513</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>514</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L35" s="11"/>
       <c r="M35" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AMN35" s="7"/>
     </row>
     <row r="36" spans="1:14 1028:1028" ht="240" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>520</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>521</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="11"/>
       <c r="M36" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AMN36" s="7"/>
     </row>
@@ -3971,7 +3971,7 @@
         <v>13</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>127</v>
@@ -4003,13 +4003,13 @@
         <v>13</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>398</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
@@ -4032,13 +4032,13 @@
         <v>13</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>134</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
@@ -4061,7 +4061,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>134</v>
@@ -4087,19 +4087,19 @@
         <v>13</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>141</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:14 1028:1028" ht="285" x14ac:dyDescent="0.25">
@@ -4122,16 +4122,16 @@
         <v>13</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>399</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N42" s="7" t="s">
         <v>415</v>
@@ -4157,13 +4157,13 @@
         <v>13</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>100</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>416</v>
@@ -4189,7 +4189,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>150</v>
@@ -4198,7 +4198,7 @@
         <v>155</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N44" s="7" t="s">
         <v>417</v>
@@ -4221,10 +4221,10 @@
         <v>13</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:14 1028:1028" ht="75" x14ac:dyDescent="0.25">
@@ -4245,7 +4245,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>150</v>
@@ -4254,10 +4254,10 @@
         <v>159</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:14 1028:1028" x14ac:dyDescent="0.25">
@@ -4280,7 +4280,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N47" s="7" t="s">
         <v>418</v>
@@ -4303,7 +4303,7 @@
         <v>13</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>168</v>
@@ -4327,13 +4327,13 @@
         <v>13</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>400</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>419</v>
@@ -4356,7 +4356,7 @@
         <v>13</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>176</v>
@@ -4379,7 +4379,7 @@
         <v>13</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>63</v>
@@ -4391,7 +4391,7 @@
         <v>386</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>180</v>
@@ -4417,7 +4417,7 @@
         <v>183</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>381</v>
@@ -4441,7 +4441,7 @@
         <v>176</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>187</v>
@@ -4470,7 +4470,7 @@
         <v>176</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4493,7 +4493,7 @@
         <v>150</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>359</v>
@@ -4520,7 +4520,7 @@
         <v>150</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -4541,7 +4541,7 @@
         <v>150</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -4562,7 +4562,7 @@
         <v>150</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -4583,7 +4583,7 @@
         <v>150</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -4604,7 +4604,7 @@
         <v>150</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -4625,7 +4625,7 @@
         <v>150</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -4645,7 +4645,7 @@
         <v>150</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -4666,7 +4666,7 @@
         <v>150</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -4687,7 +4687,7 @@
         <v>150</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4708,7 +4708,7 @@
         <v>150</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4729,7 +4729,7 @@
         <v>150</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4750,7 +4750,7 @@
         <v>150</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4771,7 +4771,7 @@
         <v>150</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4792,7 +4792,7 @@
         <v>150</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4813,7 +4813,7 @@
         <v>150</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4834,7 +4834,7 @@
         <v>150</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4855,7 +4855,7 @@
         <v>150</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4876,7 +4876,7 @@
         <v>150</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4897,7 +4897,7 @@
         <v>150</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4918,7 +4918,7 @@
         <v>150</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4939,7 +4939,7 @@
         <v>150</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4960,7 +4960,7 @@
         <v>150</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4981,7 +4981,7 @@
         <v>150</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -5002,7 +5002,7 @@
         <v>150</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5023,7 +5023,7 @@
         <v>150</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -5044,7 +5044,7 @@
         <v>150</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I81" s="3"/>
     </row>
@@ -5066,7 +5066,7 @@
         <v>150</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I82" s="3"/>
     </row>
@@ -5088,7 +5088,7 @@
         <v>150</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I83" s="3"/>
     </row>
@@ -5110,7 +5110,7 @@
         <v>150</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -5130,7 +5130,7 @@
         <v>150</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -5151,7 +5151,7 @@
         <v>150</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I86" s="4"/>
     </row>
@@ -5173,7 +5173,7 @@
         <v>150</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -5193,7 +5193,7 @@
         <v>320</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>89</v>
@@ -5220,7 +5220,7 @@
         <v>325</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I89" s="3"/>
     </row>
@@ -5244,10 +5244,10 @@
         <v>84</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="9" t="s">
@@ -5257,7 +5257,7 @@
         <v>401</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -5277,7 +5277,7 @@
         <v>84</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -5291,13 +5291,13 @@
         <v>226</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>106</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>359</v>
@@ -5309,22 +5309,22 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="D93" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>527</v>
-      </c>
       <c r="F93" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.25">

--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.3.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A25B80A-9716-4AB2-A0E7-1E1DB6A87A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9DADB1-570A-4DB1-9AB3-9CF1247E92E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23925" yWindow="1305" windowWidth="26340" windowHeight="16320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="530">
   <si>
     <t>Scheme ID</t>
   </si>
@@ -1444,9 +1444,6 @@
 The CF for legal entities is like the Italian VAT code (IT:VAT)</t>
   </si>
   <si>
-    <t>Same as 0192</t>
-  </si>
-  <si>
     <t>Numerical part is the OrgNumber</t>
   </si>
   <si>
@@ -1876,6 +1873,9 @@
   <si>
     <t>RegEx: (0037)?[0-9]{7}-?[0-9][0-9A-Z]{0,5}
 Check Digit: mod11 of 8-digit OrgCode (weights 2, 4, 8, 5, 10, 9, 7 [right to left] or 7, 9, 10, 5, 8, 4, 2, 1 [left to right])</t>
+  </si>
+  <si>
+    <t>Use 0192 instead</t>
   </si>
 </sst>
 </file>
@@ -2671,10 +2671,10 @@
   <dimension ref="A1:AMN98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,16 +2713,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>501</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>5</v>
@@ -2731,10 +2731,10 @@
         <v>6</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>7</v>
@@ -2760,7 +2760,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>366</v>
@@ -2772,7 +2772,7 @@
         <v>387</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>14</v>
@@ -2798,7 +2798,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>367</v>
@@ -2810,7 +2810,7 @@
         <v>388</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2833,7 +2833,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>368</v>
@@ -2845,7 +2845,7 @@
         <v>389</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="150" x14ac:dyDescent="0.25">
@@ -2868,7 +2868,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>369</v>
@@ -2880,7 +2880,7 @@
         <v>390</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>402</v>
@@ -2906,7 +2906,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>370</v>
@@ -2918,7 +2918,7 @@
         <v>391</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>403</v>
@@ -2944,7 +2944,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>48</v>
@@ -2956,7 +2956,7 @@
         <v>392</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>404</v>
@@ -2982,7 +2982,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>371</v>
@@ -2991,7 +2991,7 @@
         <v>32</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="180" x14ac:dyDescent="0.25">
@@ -3014,7 +3014,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>372</v>
@@ -3023,7 +3023,7 @@
         <v>32</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>405</v>
@@ -3049,7 +3049,7 @@
         <v>58</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>373</v>
@@ -3058,7 +3058,7 @@
         <v>32</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>406</v>
@@ -3084,7 +3084,7 @@
         <v>63</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>64</v>
@@ -3116,7 +3116,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>73</v>
@@ -3148,7 +3148,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>127</v>
@@ -3180,7 +3180,7 @@
         <v>79</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>374</v>
@@ -3192,7 +3192,7 @@
         <v>393</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>409</v>
@@ -3218,7 +3218,7 @@
         <v>79</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>339</v>
@@ -3227,7 +3227,7 @@
         <v>338</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>342</v>
@@ -3253,7 +3253,7 @@
         <v>84</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>375</v>
@@ -3262,33 +3262,33 @@
         <v>383</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:14 1028:1028" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>507</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>508</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>32</v>
@@ -3314,7 +3314,7 @@
         <v>89</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>376</v>
@@ -3326,7 +3326,7 @@
         <v>394</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>410</v>
@@ -3352,7 +3352,7 @@
         <v>89</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>377</v>
@@ -3364,7 +3364,7 @@
         <v>395</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>411</v>
@@ -3390,7 +3390,7 @@
         <v>89</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>100</v>
@@ -3402,7 +3402,7 @@
         <v>396</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
@@ -3425,7 +3425,7 @@
         <v>106</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>107</v>
@@ -3434,7 +3434,7 @@
         <v>32</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:14 1028:1028" ht="105" x14ac:dyDescent="0.25">
@@ -3457,7 +3457,7 @@
         <v>63</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>378</v>
@@ -3466,7 +3466,7 @@
         <v>385</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>412</v>
@@ -3492,7 +3492,7 @@
         <v>63</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>379</v>
@@ -3501,7 +3501,7 @@
         <v>386</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
@@ -3524,7 +3524,7 @@
         <v>79</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>348</v>
@@ -3533,7 +3533,7 @@
         <v>349</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:14 1028:1028" ht="409.5" x14ac:dyDescent="0.25">
@@ -3556,7 +3556,7 @@
         <v>79</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>380</v>
@@ -3565,7 +3565,7 @@
         <v>353</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:14 1028:1028" ht="90" x14ac:dyDescent="0.25">
@@ -3588,7 +3588,7 @@
         <v>79</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>123</v>
@@ -3600,7 +3600,7 @@
         <v>397</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:14 1028:1028" ht="30" x14ac:dyDescent="0.25">
@@ -3623,7 +3623,7 @@
         <v>359</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>360</v>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>361</v>
@@ -3651,7 +3651,7 @@
         <v>226</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>364</v>
@@ -3660,294 +3660,294 @@
         <v>359</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>365</v>
       </c>
       <c r="L28" s="11"/>
       <c r="M28" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AMN28" s="7"/>
     </row>
     <row r="29" spans="1:14 1028:1028" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>103</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="G29" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>426</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>427</v>
       </c>
       <c r="L29" s="11"/>
       <c r="M29" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AMN29" s="7"/>
     </row>
     <row r="30" spans="1:14 1028:1028" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="G30" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>466</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>467</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AMN30" s="7"/>
     </row>
     <row r="31" spans="1:14 1028:1028" ht="255" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="J31" s="9" t="s">
         <v>473</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>474</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AMN31" s="7"/>
     </row>
     <row r="32" spans="1:14 1028:1028" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AMN32" s="7"/>
     </row>
     <row r="33" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="J33" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="J33" s="9" t="s">
+      <c r="K33" s="9" t="s">
         <v>483</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>484</v>
       </c>
       <c r="L33" s="11"/>
       <c r="M33" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AMN33" s="7"/>
     </row>
     <row r="34" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="J34" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="J34" s="9" t="s">
+      <c r="K34" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>488</v>
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AMN34" s="7"/>
     </row>
     <row r="35" spans="1:14 1028:1028" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="J35" s="9" t="s">
         <v>512</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>513</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L35" s="11"/>
       <c r="M35" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AMN35" s="7"/>
     </row>
     <row r="36" spans="1:14 1028:1028" ht="240" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>519</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>520</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="11"/>
       <c r="M36" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AMN36" s="7"/>
     </row>
@@ -3971,7 +3971,7 @@
         <v>13</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>127</v>
@@ -4003,13 +4003,13 @@
         <v>13</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>398</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
@@ -4032,13 +4032,13 @@
         <v>13</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>134</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
@@ -4061,7 +4061,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>134</v>
@@ -4087,19 +4087,19 @@
         <v>13</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>141</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:14 1028:1028" ht="285" x14ac:dyDescent="0.25">
@@ -4122,16 +4122,16 @@
         <v>13</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>399</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N42" s="7" t="s">
         <v>415</v>
@@ -4159,14 +4159,17 @@
       <c r="G43" s="10" t="s">
         <v>493</v>
       </c>
+      <c r="H43" s="12" t="s">
+        <v>527</v>
+      </c>
       <c r="J43" s="9" t="s">
         <v>100</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>416</v>
+        <v>529</v>
       </c>
     </row>
     <row r="44" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
@@ -4189,7 +4192,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>150</v>
@@ -4198,10 +4201,10 @@
         <v>155</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:14 1028:1028" ht="90" x14ac:dyDescent="0.25">
@@ -4221,10 +4224,10 @@
         <v>13</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="1:14 1028:1028" ht="75" x14ac:dyDescent="0.25">
@@ -4245,7 +4248,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>150</v>
@@ -4254,10 +4257,10 @@
         <v>159</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:14 1028:1028" x14ac:dyDescent="0.25">
@@ -4280,10 +4283,10 @@
         <v>13</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:14 1028:1028" ht="30" x14ac:dyDescent="0.25">
@@ -4303,7 +4306,7 @@
         <v>13</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>168</v>
@@ -4327,16 +4330,16 @@
         <v>13</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>400</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4356,7 +4359,7 @@
         <v>13</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>176</v>
@@ -4379,7 +4382,7 @@
         <v>13</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>63</v>
@@ -4391,7 +4394,7 @@
         <v>386</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>180</v>
@@ -4417,7 +4420,7 @@
         <v>183</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>381</v>
@@ -4441,13 +4444,13 @@
         <v>176</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>187</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4470,7 +4473,7 @@
         <v>176</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4493,13 +4496,13 @@
         <v>150</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>359</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -4520,7 +4523,7 @@
         <v>150</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -4541,7 +4544,7 @@
         <v>150</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -4562,7 +4565,7 @@
         <v>150</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -4583,7 +4586,7 @@
         <v>150</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -4604,7 +4607,7 @@
         <v>150</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -4625,7 +4628,7 @@
         <v>150</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -4645,7 +4648,7 @@
         <v>150</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -4666,7 +4669,7 @@
         <v>150</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -4687,7 +4690,7 @@
         <v>150</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4708,7 +4711,7 @@
         <v>150</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4729,7 +4732,7 @@
         <v>150</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4750,7 +4753,7 @@
         <v>150</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4771,7 +4774,7 @@
         <v>150</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4792,7 +4795,7 @@
         <v>150</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4813,7 +4816,7 @@
         <v>150</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4834,7 +4837,7 @@
         <v>150</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4855,7 +4858,7 @@
         <v>150</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4876,7 +4879,7 @@
         <v>150</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4897,7 +4900,7 @@
         <v>150</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4918,7 +4921,7 @@
         <v>150</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4939,7 +4942,7 @@
         <v>150</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4960,7 +4963,7 @@
         <v>150</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4981,7 +4984,7 @@
         <v>150</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -5002,7 +5005,7 @@
         <v>150</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5023,7 +5026,7 @@
         <v>150</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -5044,7 +5047,7 @@
         <v>150</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I81" s="3"/>
     </row>
@@ -5066,7 +5069,7 @@
         <v>150</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I82" s="3"/>
     </row>
@@ -5088,7 +5091,7 @@
         <v>150</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I83" s="3"/>
     </row>
@@ -5110,7 +5113,7 @@
         <v>150</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -5130,7 +5133,7 @@
         <v>150</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -5151,7 +5154,7 @@
         <v>150</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I86" s="4"/>
     </row>
@@ -5173,7 +5176,7 @@
         <v>150</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -5193,7 +5196,7 @@
         <v>320</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>89</v>
@@ -5220,7 +5223,7 @@
         <v>325</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I89" s="3"/>
     </row>
@@ -5244,10 +5247,10 @@
         <v>84</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="9" t="s">
@@ -5257,7 +5260,7 @@
         <v>401</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -5277,7 +5280,7 @@
         <v>84</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -5291,40 +5294,40 @@
         <v>226</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>106</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>359</v>
       </c>
       <c r="I92" s="4"/>
       <c r="N92" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="D93" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>526</v>
-      </c>
       <c r="F93" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.25">
